--- a/Backend/results/17229644778933183683/monthly_pivot.xlsx
+++ b/Backend/results/17229644778933183683/monthly_pivot.xlsx
@@ -473,914 +473,914 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19.04032258064516</v>
+        <v>1101.58064516129</v>
       </c>
       <c r="B2" t="n">
-        <v>20.5625</v>
+        <v>1161.321428571429</v>
       </c>
       <c r="C2" t="n">
-        <v>21.5241935483871</v>
+        <v>1155.41935483871</v>
       </c>
       <c r="D2" t="n">
-        <v>22.9</v>
+        <v>1112.866666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>22.29032258064516</v>
+        <v>883.3387096774194</v>
       </c>
       <c r="F2" t="n">
-        <v>22.55833333333333</v>
+        <v>1014.316666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>24.50806451612903</v>
+        <v>1016.774193548387</v>
       </c>
       <c r="H2" t="n">
-        <v>27.71774193548387</v>
+        <v>980.0967741935484</v>
       </c>
       <c r="I2" t="n">
-        <v>24.225</v>
+        <v>1010.433333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>22.91935483870968</v>
+        <v>983.6612903225806</v>
       </c>
       <c r="K2" t="n">
-        <v>21.525</v>
+        <v>1086.516666666667</v>
       </c>
       <c r="L2" t="n">
-        <v>20.65322580645161</v>
+        <v>1112.564516129032</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19.05645161290322</v>
+        <v>1104.838709677419</v>
       </c>
       <c r="B3" t="n">
-        <v>20.625</v>
+        <v>1157.803571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>21.64516129032258</v>
+        <v>1154.41935483871</v>
       </c>
       <c r="D3" t="n">
-        <v>22.7</v>
+        <v>1110.183333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>22.45967741935484</v>
+        <v>875.5645161290323</v>
       </c>
       <c r="F3" t="n">
-        <v>22.525</v>
+        <v>1014.016666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>24.06451612903226</v>
+        <v>1016.58064516129</v>
       </c>
       <c r="H3" t="n">
-        <v>27.80645161290322</v>
+        <v>981.4193548387096</v>
       </c>
       <c r="I3" t="n">
-        <v>24.05</v>
+        <v>1010.666666666667</v>
       </c>
       <c r="J3" t="n">
-        <v>22.65322580645161</v>
+        <v>981.6129032258065</v>
       </c>
       <c r="K3" t="n">
-        <v>21.60416666666667</v>
+        <v>1084.208333333333</v>
       </c>
       <c r="L3" t="n">
-        <v>20.68548387096774</v>
+        <v>1108.516129032258</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.76612903225806</v>
+        <v>1104.629032258065</v>
       </c>
       <c r="B4" t="n">
-        <v>20.42857142857143</v>
+        <v>1154.142857142857</v>
       </c>
       <c r="C4" t="n">
-        <v>21.54166666666667</v>
+        <v>1151.85</v>
       </c>
       <c r="D4" t="n">
-        <v>22.54166666666667</v>
+        <v>1108.3</v>
       </c>
       <c r="E4" t="n">
-        <v>22.19354838709678</v>
+        <v>869.9354838709677</v>
       </c>
       <c r="F4" t="n">
-        <v>22.38333333333333</v>
+        <v>1009.233333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>23.87903225806452</v>
+        <v>1014.564516129032</v>
       </c>
       <c r="H4" t="n">
-        <v>27.91129032258064</v>
+        <v>981.6935483870968</v>
       </c>
       <c r="I4" t="n">
-        <v>23.89166666666667</v>
+        <v>1008.766666666667</v>
       </c>
       <c r="J4" t="n">
-        <v>22.42741935483871</v>
+        <v>981.6935483870968</v>
       </c>
       <c r="K4" t="n">
-        <v>21.54166666666667</v>
+        <v>1087.85</v>
       </c>
       <c r="L4" t="n">
-        <v>20.78225806451613</v>
+        <v>1109.177419354839</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>18.79032258064516</v>
+        <v>1102.209677419355</v>
       </c>
       <c r="B5" t="n">
-        <v>20.67857142857143</v>
+        <v>1155.875</v>
       </c>
       <c r="C5" t="n">
-        <v>21.94354838709678</v>
+        <v>1154.629032258065</v>
       </c>
       <c r="D5" t="n">
-        <v>22.54166666666667</v>
+        <v>1109.566666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>22.38709677419355</v>
+        <v>870.2096774193549</v>
       </c>
       <c r="F5" t="n">
-        <v>22.54166666666667</v>
+        <v>1009.183333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>24.45161290322581</v>
+        <v>1015.064516129032</v>
       </c>
       <c r="H5" t="n">
-        <v>27.80645161290322</v>
+        <v>981.516129032258</v>
       </c>
       <c r="I5" t="n">
-        <v>24.00833333333333</v>
+        <v>1010.116666666667</v>
       </c>
       <c r="J5" t="n">
-        <v>22.33064516129032</v>
+        <v>983.4677419354839</v>
       </c>
       <c r="K5" t="n">
-        <v>21.5</v>
+        <v>1088.516666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>20.71774193548387</v>
+        <v>1108.661290322581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>18.04032258064516</v>
+        <v>1102.145161290323</v>
       </c>
       <c r="B6" t="n">
-        <v>20.07142857142857</v>
+        <v>1153.464285714286</v>
       </c>
       <c r="C6" t="n">
-        <v>21.16935483870968</v>
+        <v>1146.403225806452</v>
       </c>
       <c r="D6" t="n">
-        <v>22.475</v>
+        <v>1106.116666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>22.62096774193548</v>
+        <v>869.8548387096774</v>
       </c>
       <c r="F6" t="n">
-        <v>22.59166666666667</v>
+        <v>1007.066666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>23.92741935483871</v>
+        <v>1014.951612903226</v>
       </c>
       <c r="H6" t="n">
-        <v>27.73387096774194</v>
+        <v>980.8548387096774</v>
       </c>
       <c r="I6" t="n">
-        <v>24.1</v>
+        <v>1009.85</v>
       </c>
       <c r="J6" t="n">
-        <v>22.31451612903226</v>
+        <v>983.5</v>
       </c>
       <c r="K6" t="n">
-        <v>21.56666666666667</v>
+        <v>1086.583333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>20.61290322580645</v>
+        <v>1108.854838709677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17.9758064516129</v>
+        <v>1102.822580645161</v>
       </c>
       <c r="B7" t="n">
-        <v>20.02678571428572</v>
+        <v>1155.821428571429</v>
       </c>
       <c r="C7" t="n">
-        <v>20.67741935483871</v>
+        <v>1149.064516129032</v>
       </c>
       <c r="D7" t="n">
-        <v>22.55833333333333</v>
+        <v>1105.516666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>20.89516129032258</v>
+        <v>878.741935483871</v>
       </c>
       <c r="F7" t="n">
-        <v>20.36666666666667</v>
+        <v>1005.166666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>23.41935483870968</v>
+        <v>1014.790322580645</v>
       </c>
       <c r="H7" t="n">
-        <v>28.30645161290322</v>
+        <v>981.483870967742</v>
       </c>
       <c r="I7" t="n">
-        <v>24.25</v>
+        <v>1010.483333333333</v>
       </c>
       <c r="J7" t="n">
-        <v>22.88709677419355</v>
+        <v>979.5483870967741</v>
       </c>
       <c r="K7" t="n">
-        <v>25.225</v>
+        <v>1090.15</v>
       </c>
       <c r="L7" t="n">
-        <v>25.54838709677419</v>
+        <v>1110.403225806452</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18.79032258064516</v>
+        <v>1115.306451612903</v>
       </c>
       <c r="B8" t="n">
-        <v>19.0625</v>
+        <v>1163</v>
       </c>
       <c r="C8" t="n">
-        <v>19.13709677419355</v>
+        <v>1162.403225806452</v>
       </c>
       <c r="D8" t="n">
-        <v>20.64166666666667</v>
+        <v>1112.633333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>20.94354838709678</v>
+        <v>888.0806451612904</v>
       </c>
       <c r="F8" t="n">
-        <v>23.39166666666667</v>
+        <v>1013.85</v>
       </c>
       <c r="G8" t="n">
-        <v>28.58064516129032</v>
+        <v>1017.838709677419</v>
       </c>
       <c r="H8" t="n">
-        <v>29.93548387096774</v>
+        <v>986.2258064516129</v>
       </c>
       <c r="I8" t="n">
-        <v>24.15833333333333</v>
+        <v>1017.05</v>
       </c>
       <c r="J8" t="n">
-        <v>23.53225806451613</v>
+        <v>996.4193548387096</v>
       </c>
       <c r="K8" t="n">
-        <v>26.325</v>
+        <v>1101.116666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>27.16129032258064</v>
+        <v>1126.241935483871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16.44354838709678</v>
+        <v>1152.209677419355</v>
       </c>
       <c r="B9" t="n">
-        <v>18.0625</v>
+        <v>1182.535714285714</v>
       </c>
       <c r="C9" t="n">
-        <v>18.09677419354839</v>
+        <v>1184.290322580645</v>
       </c>
       <c r="D9" t="n">
-        <v>20.90833333333333</v>
+        <v>1128.85</v>
       </c>
       <c r="E9" t="n">
-        <v>21.49193548387097</v>
+        <v>912.4516129032259</v>
       </c>
       <c r="F9" t="n">
-        <v>24.71666666666667</v>
+        <v>1041.833333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>30.37903225806452</v>
+        <v>1032.838709677419</v>
       </c>
       <c r="H9" t="n">
-        <v>31.66935483870968</v>
+        <v>1007.58064516129</v>
       </c>
       <c r="I9" t="n">
-        <v>24.18333333333333</v>
+        <v>1031.383333333333</v>
       </c>
       <c r="J9" t="n">
-        <v>22.41129032258064</v>
+        <v>1012.887096774194</v>
       </c>
       <c r="K9" t="n">
-        <v>27</v>
+        <v>1118.716666666667</v>
       </c>
       <c r="L9" t="n">
-        <v>28.37096774193548</v>
+        <v>1141.032258064516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17.45967741935484</v>
+        <v>1197.403225806452</v>
       </c>
       <c r="B10" t="n">
-        <v>22.97321428571428</v>
+        <v>1223.678571428571</v>
       </c>
       <c r="C10" t="n">
-        <v>22.9758064516129</v>
+        <v>1238.193548387097</v>
       </c>
       <c r="D10" t="n">
-        <v>24.35</v>
+        <v>1181.6</v>
       </c>
       <c r="E10" t="n">
-        <v>24.03225806451613</v>
+        <v>980.4677419354839</v>
       </c>
       <c r="F10" t="n">
-        <v>25.825</v>
+        <v>1118.266666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>31.46774193548387</v>
+        <v>1097.548387096774</v>
       </c>
       <c r="H10" t="n">
-        <v>33.36290322580645</v>
+        <v>1050.209677419355</v>
       </c>
       <c r="I10" t="n">
-        <v>27.46666666666667</v>
+        <v>1071.433333333333</v>
       </c>
       <c r="J10" t="n">
-        <v>26.61290322580645</v>
+        <v>1055.854838709677</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26666666666667</v>
+        <v>1173.533333333333</v>
       </c>
       <c r="L10" t="n">
-        <v>28.86290322580645</v>
+        <v>1185.645161290323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21.58064516129032</v>
+        <v>1256.677419354839</v>
       </c>
       <c r="B11" t="n">
-        <v>27.17857142857143</v>
+        <v>1307.660714285714</v>
       </c>
       <c r="C11" t="n">
-        <v>27.30645161290322</v>
+        <v>1288.725806451613</v>
       </c>
       <c r="D11" t="n">
-        <v>27.68333333333333</v>
+        <v>1245.666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>28.08870967741936</v>
+        <v>1037.370967741935</v>
       </c>
       <c r="F11" t="n">
-        <v>28.61666666666667</v>
+        <v>1164.316666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>34.36290322580645</v>
+        <v>1145.322580645161</v>
       </c>
       <c r="H11" t="n">
-        <v>36.87096774193548</v>
+        <v>1080.016129032258</v>
       </c>
       <c r="I11" t="n">
-        <v>31.39166666666667</v>
+        <v>1133.866666666667</v>
       </c>
       <c r="J11" t="n">
-        <v>31.0241935483871</v>
+        <v>1120.483870967742</v>
       </c>
       <c r="K11" t="n">
-        <v>32.14166666666667</v>
+        <v>1212.166666666667</v>
       </c>
       <c r="L11" t="n">
-        <v>31.41129032258064</v>
+        <v>1238.193548387097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>24.19354838709678</v>
+        <v>1306.677419354839</v>
       </c>
       <c r="B12" t="n">
-        <v>29.70535714285714</v>
+        <v>1319.107142857143</v>
       </c>
       <c r="C12" t="n">
-        <v>29.58064516129032</v>
+        <v>1316.596774193548</v>
       </c>
       <c r="D12" t="n">
-        <v>29.85</v>
+        <v>1284.55</v>
       </c>
       <c r="E12" t="n">
-        <v>30.80645161290322</v>
+        <v>1072.096774193548</v>
       </c>
       <c r="F12" t="n">
-        <v>30.75</v>
+        <v>1195.166666666667</v>
       </c>
       <c r="G12" t="n">
-        <v>36.76612903225806</v>
+        <v>1163.967741935484</v>
       </c>
       <c r="H12" t="n">
-        <v>39.98387096774194</v>
+        <v>1115.290322580645</v>
       </c>
       <c r="I12" t="n">
-        <v>35.00833333333333</v>
+        <v>1177.833333333333</v>
       </c>
       <c r="J12" t="n">
-        <v>34.51612903225806</v>
+        <v>1185.983870967742</v>
       </c>
       <c r="K12" t="n">
-        <v>34.25</v>
+        <v>1240.25</v>
       </c>
       <c r="L12" t="n">
-        <v>33.82258064516129</v>
+        <v>1255.741935483871</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>25.54838709677419</v>
+        <v>1289.225806451613</v>
       </c>
       <c r="B13" t="n">
-        <v>30.84821428571428</v>
+        <v>1335.964285714286</v>
       </c>
       <c r="C13" t="n">
-        <v>30.5241935483871</v>
+        <v>1324.806451612903</v>
       </c>
       <c r="D13" t="n">
-        <v>30.75</v>
+        <v>1303.083333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>31.83870967741936</v>
+        <v>1081</v>
       </c>
       <c r="F13" t="n">
-        <v>31.45</v>
+        <v>1212.266666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>41.39516129032258</v>
+        <v>1182.935483870968</v>
       </c>
       <c r="H13" t="n">
-        <v>42.30645161290322</v>
+        <v>1123.967741935484</v>
       </c>
       <c r="I13" t="n">
-        <v>37.23333333333333</v>
+        <v>1197.716666666667</v>
       </c>
       <c r="J13" t="n">
-        <v>35.67741935483871</v>
+        <v>1203.548387096774</v>
       </c>
       <c r="K13" t="n">
-        <v>35.025</v>
+        <v>1252.466666666667</v>
       </c>
       <c r="L13" t="n">
-        <v>34.04838709677419</v>
+        <v>1259.806451612903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>27.04032258064516</v>
+        <v>1290.645161290323</v>
       </c>
       <c r="B14" t="n">
-        <v>30.45535714285714</v>
+        <v>1337.696428571429</v>
       </c>
       <c r="C14" t="n">
-        <v>30.17741935483871</v>
+        <v>1334.661290322581</v>
       </c>
       <c r="D14" t="n">
-        <v>30.83333333333333</v>
+        <v>1325.716666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>32.07258064516129</v>
+        <v>1100.790322580645</v>
       </c>
       <c r="F14" t="n">
-        <v>33.78333333333333</v>
+        <v>1211.066666666667</v>
       </c>
       <c r="G14" t="n">
-        <v>45.32258064516129</v>
+        <v>1184.645161290323</v>
       </c>
       <c r="H14" t="n">
-        <v>44.21774193548387</v>
+        <v>1127.322580645161</v>
       </c>
       <c r="I14" t="n">
-        <v>37.39166666666667</v>
+        <v>1202.85</v>
       </c>
       <c r="J14" t="n">
-        <v>35.57258064516129</v>
+        <v>1204.629032258065</v>
       </c>
       <c r="K14" t="n">
-        <v>34.79166666666666</v>
+        <v>1259.066666666667</v>
       </c>
       <c r="L14" t="n">
-        <v>33.75</v>
+        <v>1273.161290322581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>26.79838709677419</v>
+        <v>1300.048387096774</v>
       </c>
       <c r="B15" t="n">
-        <v>30.24107142857143</v>
+        <v>1356.214285714286</v>
       </c>
       <c r="C15" t="n">
-        <v>30.5</v>
+        <v>1344.177419354839</v>
       </c>
       <c r="D15" t="n">
-        <v>30.91666666666667</v>
+        <v>1310</v>
       </c>
       <c r="E15" t="n">
-        <v>31.08064516129032</v>
+        <v>1103.451612903226</v>
       </c>
       <c r="F15" t="n">
-        <v>33.83333333333334</v>
+        <v>1231.4</v>
       </c>
       <c r="G15" t="n">
-        <v>44.95161290322581</v>
+        <v>1186.612903225806</v>
       </c>
       <c r="H15" t="n">
-        <v>43.58064516129032</v>
+        <v>1131.58064516129</v>
       </c>
       <c r="I15" t="n">
-        <v>37.88333333333333</v>
+        <v>1203.95</v>
       </c>
       <c r="J15" t="n">
-        <v>34.93548387096774</v>
+        <v>1195.338709677419</v>
       </c>
       <c r="K15" t="n">
-        <v>34.15833333333333</v>
+        <v>1255.033333333333</v>
       </c>
       <c r="L15" t="n">
-        <v>33.30645161290322</v>
+        <v>1267.91935483871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>26.49193548387097</v>
+        <v>1278.41935483871</v>
       </c>
       <c r="B16" t="n">
-        <v>29.98214285714286</v>
+        <v>1331.035714285714</v>
       </c>
       <c r="C16" t="n">
-        <v>30.41935483870968</v>
+        <v>1317.435483870968</v>
       </c>
       <c r="D16" t="n">
-        <v>31.05833333333333</v>
+        <v>1297.4</v>
       </c>
       <c r="E16" t="n">
-        <v>31.32258064516129</v>
+        <v>1076.822580645161</v>
       </c>
       <c r="F16" t="n">
-        <v>34.88333333333333</v>
+        <v>1212.033333333333</v>
       </c>
       <c r="G16" t="n">
-        <v>45.16129032258065</v>
+        <v>1174</v>
       </c>
       <c r="H16" t="n">
-        <v>43.58870967741935</v>
+        <v>1121.354838709677</v>
       </c>
       <c r="I16" t="n">
-        <v>37.725</v>
+        <v>1186.066666666667</v>
       </c>
       <c r="J16" t="n">
-        <v>34.42741935483871</v>
+        <v>1180.193548387097</v>
       </c>
       <c r="K16" t="n">
-        <v>34.10833333333333</v>
+        <v>1246.05</v>
       </c>
       <c r="L16" t="n">
-        <v>33.08064516129032</v>
+        <v>1252.564516129032</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28.62903225806452</v>
+        <v>1262.838709677419</v>
       </c>
       <c r="B17" t="n">
-        <v>29.98214285714286</v>
+        <v>1301.607142857143</v>
       </c>
       <c r="C17" t="n">
-        <v>30.01612903225806</v>
+        <v>1295.516129032258</v>
       </c>
       <c r="D17" t="n">
-        <v>30.89166666666667</v>
+        <v>1272.933333333333</v>
       </c>
       <c r="E17" t="n">
-        <v>31.45161290322581</v>
+        <v>1049.725806451613</v>
       </c>
       <c r="F17" t="n">
-        <v>35.1</v>
+        <v>1167.25</v>
       </c>
       <c r="G17" t="n">
-        <v>45.06451612903226</v>
+        <v>1138.677419354839</v>
       </c>
       <c r="H17" t="n">
-        <v>43.40322580645162</v>
+        <v>1100.435483870968</v>
       </c>
       <c r="I17" t="n">
-        <v>37.35</v>
+        <v>1174.716666666667</v>
       </c>
       <c r="J17" t="n">
-        <v>33.66129032258065</v>
+        <v>1161.112903225806</v>
       </c>
       <c r="K17" t="n">
-        <v>34.33333333333334</v>
+        <v>1234.7</v>
       </c>
       <c r="L17" t="n">
-        <v>32.64516129032258</v>
+        <v>1235.322580645161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>29.76612903225806</v>
+        <v>1229.145161290323</v>
       </c>
       <c r="B18" t="n">
-        <v>32.01785714285715</v>
+        <v>1265.25</v>
       </c>
       <c r="C18" t="n">
-        <v>29.62096774193548</v>
+        <v>1264.612903225806</v>
       </c>
       <c r="D18" t="n">
-        <v>30.20833333333333</v>
+        <v>1225.833333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>30.37903225806452</v>
+        <v>998.483870967742</v>
       </c>
       <c r="F18" t="n">
-        <v>34.76666666666667</v>
+        <v>1119.016666666667</v>
       </c>
       <c r="G18" t="n">
-        <v>45.05645161290322</v>
+        <v>1096.854838709677</v>
       </c>
       <c r="H18" t="n">
-        <v>42.09677419354838</v>
+        <v>1061.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.80833333333333</v>
+        <v>1125.583333333333</v>
       </c>
       <c r="J18" t="n">
-        <v>33.64516129032258</v>
+        <v>1109.532258064516</v>
       </c>
       <c r="K18" t="n">
-        <v>33.55833333333333</v>
+        <v>1203.433333333333</v>
       </c>
       <c r="L18" t="n">
-        <v>32.65322580645162</v>
+        <v>1211.564516129032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>27.99193548387097</v>
+        <v>1203.258064516129</v>
       </c>
       <c r="B19" t="n">
-        <v>29.89285714285714</v>
+        <v>1244.339285714286</v>
       </c>
       <c r="C19" t="n">
-        <v>29.03225806451613</v>
+        <v>1243.112903225806</v>
       </c>
       <c r="D19" t="n">
-        <v>28.73333333333333</v>
+        <v>1197.733333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>27.32258064516129</v>
+        <v>966.1612903225806</v>
       </c>
       <c r="F19" t="n">
-        <v>32.09166666666667</v>
+        <v>1100.366666666667</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76612903225806</v>
+        <v>1079.91935483871</v>
       </c>
       <c r="H19" t="n">
-        <v>37.86290322580645</v>
+        <v>1036.903225806452</v>
       </c>
       <c r="I19" t="n">
-        <v>35.825</v>
+        <v>1094.95</v>
       </c>
       <c r="J19" t="n">
-        <v>31.48387096774194</v>
+        <v>1075.129032258065</v>
       </c>
       <c r="K19" t="n">
-        <v>31.5</v>
+        <v>1182.65</v>
       </c>
       <c r="L19" t="n">
-        <v>30.66935483870968</v>
+        <v>1191.483870967742</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>24.20967741935484</v>
+        <v>1184.58064516129</v>
       </c>
       <c r="B20" t="n">
-        <v>27.46428571428572</v>
+        <v>1224.375</v>
       </c>
       <c r="C20" t="n">
-        <v>27.88709677419355</v>
+        <v>1223.870967741935</v>
       </c>
       <c r="D20" t="n">
-        <v>29.46666666666667</v>
+        <v>1174.833333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>26.08870967741936</v>
+        <v>946.6290322580645</v>
       </c>
       <c r="F20" t="n">
-        <v>24.05833333333333</v>
+        <v>1077.633333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>28.87903225806452</v>
+        <v>1060.645161290323</v>
       </c>
       <c r="H20" t="n">
-        <v>31.91129032258064</v>
+        <v>1019.274193548387</v>
       </c>
       <c r="I20" t="n">
-        <v>34.14166666666667</v>
+        <v>1072.55</v>
       </c>
       <c r="J20" t="n">
-        <v>28.66935483870968</v>
+        <v>1050.274193548387</v>
       </c>
       <c r="K20" t="n">
-        <v>29.45</v>
+        <v>1159.433333333333</v>
       </c>
       <c r="L20" t="n">
-        <v>28.70967741935484</v>
+        <v>1176.41935483871</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.36290322580645</v>
+        <v>1167.322580645161</v>
       </c>
       <c r="B21" t="n">
-        <v>25.97321428571428</v>
+        <v>1204.321428571429</v>
       </c>
       <c r="C21" t="n">
-        <v>25.61290322580645</v>
+        <v>1212.983870967742</v>
       </c>
       <c r="D21" t="n">
-        <v>27.65</v>
+        <v>1162.116666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>25.83870967741936</v>
+        <v>936.741935483871</v>
       </c>
       <c r="F21" t="n">
-        <v>25.05</v>
+        <v>1060.116666666667</v>
       </c>
       <c r="G21" t="n">
-        <v>28.30645161290322</v>
+        <v>1044.967741935484</v>
       </c>
       <c r="H21" t="n">
-        <v>31.36290322580645</v>
+        <v>1008.016129032258</v>
       </c>
       <c r="I21" t="n">
-        <v>33.29166666666666</v>
+        <v>1054.8</v>
       </c>
       <c r="J21" t="n">
-        <v>27.56451612903226</v>
+        <v>1030.532258064516</v>
       </c>
       <c r="K21" t="n">
-        <v>28.075</v>
+        <v>1139.216666666667</v>
       </c>
       <c r="L21" t="n">
-        <v>27.67741935483871</v>
+        <v>1160.758064516129</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20.31451612903226</v>
+        <v>1153.354838709677</v>
       </c>
       <c r="B22" t="n">
-        <v>23.83928571428572</v>
+        <v>1193.125</v>
       </c>
       <c r="C22" t="n">
-        <v>24.20967741935484</v>
+        <v>1195.709677419355</v>
       </c>
       <c r="D22" t="n">
-        <v>26.25</v>
+        <v>1150.133333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>23.83870967741936</v>
+        <v>923.241935483871</v>
       </c>
       <c r="F22" t="n">
-        <v>23.73333333333333</v>
+        <v>1050.416666666667</v>
       </c>
       <c r="G22" t="n">
-        <v>25.7258064516129</v>
+        <v>1031.903225806452</v>
       </c>
       <c r="H22" t="n">
-        <v>29.00806451612903</v>
+        <v>1000.451612903226</v>
       </c>
       <c r="I22" t="n">
-        <v>30.775</v>
+        <v>1041.733333333333</v>
       </c>
       <c r="J22" t="n">
-        <v>25.86290322580645</v>
+        <v>1014.209677419355</v>
       </c>
       <c r="K22" t="n">
-        <v>26.775</v>
+        <v>1127.683333333333</v>
       </c>
       <c r="L22" t="n">
-        <v>26.33870967741936</v>
+        <v>1153.322580645161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19.36290322580645</v>
+        <v>1138.451612903226</v>
       </c>
       <c r="B23" t="n">
-        <v>20.92857142857143</v>
+        <v>1178.625</v>
       </c>
       <c r="C23" t="n">
-        <v>21.51612903225806</v>
+        <v>1166.338709677419</v>
       </c>
       <c r="D23" t="n">
-        <v>23.01666666666667</v>
+        <v>1131.466666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>22.28225806451613</v>
+        <v>905.7096774193549</v>
       </c>
       <c r="F23" t="n">
-        <v>22.40833333333333</v>
+        <v>1036.283333333333</v>
       </c>
       <c r="G23" t="n">
-        <v>24.80645161290322</v>
+        <v>1022.08064516129</v>
       </c>
       <c r="H23" t="n">
-        <v>27.91935483870968</v>
+        <v>992.516129032258</v>
       </c>
       <c r="I23" t="n">
-        <v>24.70833333333333</v>
+        <v>1031</v>
       </c>
       <c r="J23" t="n">
-        <v>22.29032258064516</v>
+        <v>1001.096774193548</v>
       </c>
       <c r="K23" t="n">
-        <v>21.50833333333333</v>
+        <v>1108.133333333333</v>
       </c>
       <c r="L23" t="n">
-        <v>21.08870967741936</v>
+        <v>1143.096774193548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>19.65322580645161</v>
+        <v>1115.661290322581</v>
       </c>
       <c r="B24" t="n">
-        <v>21.00892857142857</v>
+        <v>1172.107142857143</v>
       </c>
       <c r="C24" t="n">
-        <v>21.62096774193548</v>
+        <v>1159.064516129032</v>
       </c>
       <c r="D24" t="n">
-        <v>23.25833333333333</v>
+        <v>1116.6</v>
       </c>
       <c r="E24" t="n">
-        <v>22.55645161290322</v>
+        <v>893.3225806451613</v>
       </c>
       <c r="F24" t="n">
-        <v>22.625</v>
+        <v>1024.533333333333</v>
       </c>
       <c r="G24" t="n">
-        <v>24.2741935483871</v>
+        <v>1021.725806451613</v>
       </c>
       <c r="H24" t="n">
-        <v>28.13709677419355</v>
+        <v>988.6612903225806</v>
       </c>
       <c r="I24" t="n">
-        <v>24.18333333333333</v>
+        <v>1025.616666666667</v>
       </c>
       <c r="J24" t="n">
-        <v>22.50806451612903</v>
+        <v>998.4677419354839</v>
       </c>
       <c r="K24" t="n">
-        <v>21.86666666666667</v>
+        <v>1106.85</v>
       </c>
       <c r="L24" t="n">
-        <v>21.17741935483871</v>
+        <v>1135.370967741935</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>20.20161290322581</v>
+        <v>1106.935483870968</v>
       </c>
       <c r="B25" t="n">
-        <v>21.38392857142857</v>
+        <v>1165.017857142857</v>
       </c>
       <c r="C25" t="n">
-        <v>22.07258064516129</v>
+        <v>1157.838709677419</v>
       </c>
       <c r="D25" t="n">
-        <v>23.26666666666667</v>
+        <v>1112.383333333333</v>
       </c>
       <c r="E25" t="n">
-        <v>22.64516129032258</v>
+        <v>884.258064516129</v>
       </c>
       <c r="F25" t="n">
-        <v>22.875</v>
+        <v>1014.416666666667</v>
       </c>
       <c r="G25" t="n">
-        <v>24.54032258064516</v>
+        <v>1016.758064516129</v>
       </c>
       <c r="H25" t="n">
-        <v>28.38709677419355</v>
+        <v>985.0645161290323</v>
       </c>
       <c r="I25" t="n">
-        <v>24.3</v>
+        <v>1016.616666666667</v>
       </c>
       <c r="J25" t="n">
-        <v>22.79032258064516</v>
+        <v>991.6290322580645</v>
       </c>
       <c r="K25" t="n">
-        <v>21.81666666666667</v>
+        <v>1094.6</v>
       </c>
       <c r="L25" t="n">
-        <v>21.33064516129032</v>
+        <v>1117.306451612903</v>
       </c>
     </row>
   </sheetData>
